--- a/biology/Médecine/Angelo_Filippetti/Angelo_Filippetti.xlsx
+++ b/biology/Médecine/Angelo_Filippetti/Angelo_Filippetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelo Filippetti ( né à Arona le 26 janvier 1866 et mort à Milan le 10 octobre 1936) est un homme politique, espérantiste et médecin italien, maire de Milan de 1920 à 1922.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maire de Milan le 20 novembre 1920 [1] et membre du Parti socialiste italien (PSI), Angelo Filippetti a été démis de ses fonctions par le préfet royal Alfredo Lusignoli (it) le 3 août 1922 après que des membres des Chemises noires eurent occupé l'hôtel de ville de Milan, le Palais Marino [2].
-Président de la Fédération italienne d'espéranto de 1913 à 1920, Angelo Filippetti  s'est fait l'avocat de l'enseignement de l'espéranto. Il fait partie des organisateurs du quatrième congrès italien d'espéranto, qui se tient à Milan en 1913[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maire de Milan le 20 novembre 1920  et membre du Parti socialiste italien (PSI), Angelo Filippetti a été démis de ses fonctions par le préfet royal Alfredo Lusignoli (it) le 3 août 1922 après que des membres des Chemises noires eurent occupé l'hôtel de ville de Milan, le Palais Marino .
+Président de la Fédération italienne d'espéranto de 1913 à 1920, Angelo Filippetti  s'est fait l'avocat de l'enseignement de l'espéranto. Il fait partie des organisateurs du quatrième congrès italien d'espéranto, qui se tient à Milan en 1913.
 </t>
         </is>
       </c>
